--- a/AdmitCard/MidDateSheet.xlsx
+++ b/AdmitCard/MidDateSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="465" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="825" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,45 +14,78 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>Data Communication and Networks AM Mr.Syed Meiraj Hasan Block-C Ground Floor BS(CS) CG-C1</t>
-  </si>
-  <si>
-    <t>Data Communication and Networks AM Mr.Syed Meiraj Hasan Block-C Ground Floor BS(CS) CG-C2</t>
-  </si>
-  <si>
-    <t>Operating Systems AM Mr.Osama Ahmed Khan BS(CS) Block-C Ground Floor CG-C1</t>
-  </si>
-  <si>
-    <t>Operating Systems AM Mr.Osama Ahmed Khan BS(CS) Block-C Ground Floor CG-C2</t>
-  </si>
-  <si>
-    <t>Software Project Management BM Mr.Syed Sarmad Ali BS(SE) Block-C Ground Floor CG-C5</t>
-  </si>
-  <si>
-    <t>Software Project Management BM Mr.Syed Sarmad Ali BS(SE) Block-C Ground Floor CG-C6</t>
-  </si>
-  <si>
-    <t>Software Project Management AM Mr.Syed Sarmad Ali BS(SE) Block-C Ground Floor CG-C7</t>
-  </si>
-  <si>
-    <t>Principles of Management HM Mr.Khushnood Khalid BS(CS) Block-C Ground Floor CG-C9</t>
-  </si>
-  <si>
-    <t>Software Architecture BM Mr.Muhammad Zeeshan Siddiqui BS(SE) Block-C Ground Floor CG-C6</t>
-  </si>
-  <si>
-    <t>Software Architecture AM Mr.Muhammad Kamran BS(SE) Block-C Ground Floor CG-C6</t>
-  </si>
-  <si>
-    <t>Software Architecture BM Mr.Muhammad Zeeshan Siddiqui BS(SE) Block-C Ground Floor CG-C7</t>
-  </si>
-  <si>
-    <t>Software Architecture BM Mr.Muhammad Zeeshan Siddiqui BS(SE) Block-C Ground Floor CG-C8</t>
-  </si>
-  <si>
-    <t>Software Architecture AM Mr.Muhammad Kamran BS(SE) Block-C Ground Floor CG-C9</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+  <si>
+    <t>CG-C3</t>
+  </si>
+  <si>
+    <t>CG-C4</t>
+  </si>
+  <si>
+    <t>Ground Floor BS(CS)</t>
+  </si>
+  <si>
+    <t>CG-C1</t>
+  </si>
+  <si>
+    <t>CG-C2</t>
+  </si>
+  <si>
+    <t>CG-C5</t>
+  </si>
+  <si>
+    <t>CG-C6</t>
+  </si>
+  <si>
+    <t>CG-C7</t>
+  </si>
+  <si>
+    <t>CS-UDI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Block-C </t>
+  </si>
+  <si>
+    <t>Mr.Syed Meiraj Hasan</t>
+  </si>
+  <si>
+    <t>Mr.Osama Ahmed Khan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr.Syed Sarmad Ali </t>
+  </si>
+  <si>
+    <t>Ms.Uzma Khan</t>
+  </si>
+  <si>
+    <t>Mr.Muhammad Zeeshan Siddiqui</t>
+  </si>
+  <si>
+    <t>Second Floor</t>
+  </si>
+  <si>
+    <t>BM</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>EM</t>
+  </si>
+  <si>
+    <t>Data Communication and Networks</t>
+  </si>
+  <si>
+    <t>Software Architecture</t>
+  </si>
+  <si>
+    <t>Software Project Management</t>
+  </si>
+  <si>
+    <t>Operating Systems</t>
+  </si>
+  <si>
+    <t>Principles of Management</t>
   </si>
 </sst>
 </file>
@@ -90,9 +123,11 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -398,93 +433,198 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A16"/>
+  <dimension ref="A3:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A9:A11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="137.42578125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="37.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="36" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="21" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="F15" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
   </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="E3:E10"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="D3:D16"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/AdmitCard/MidDateSheet.xlsx
+++ b/AdmitCard/MidDateSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="825" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="1545" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
   <si>
     <t>CG-C3</t>
   </si>
@@ -86,6 +86,21 @@
   </si>
   <si>
     <t>Principles of Management</t>
+  </si>
+  <si>
+    <t>Tuesday, 30 Nov 11:30 to 1:00</t>
+  </si>
+  <si>
+    <t>Firday, 3 Dec 9:30 to 11:00</t>
+  </si>
+  <si>
+    <t>Wednesday, 1 Dec 11:30 to 1:00</t>
+  </si>
+  <si>
+    <t>Saturday, 4 Dec 9:30 to 11:00</t>
+  </si>
+  <si>
+    <t>Sunday, 30 Dec 2:00 to 3:30</t>
   </si>
 </sst>
 </file>
@@ -433,198 +448,226 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:F16"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A3:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="36" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="21" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="37.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="36" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="2" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="2" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="2" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1" t="s">
+      <c r="D12" s="2"/>
+      <c r="E12" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="2" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1" t="s">
+      <c r="D15" s="2"/>
+      <c r="E15" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="2" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="1" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B6:B7"/>
+  <mergeCells count="24">
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="B15:B16"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="D3:D16"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A15:A16"/>
     <mergeCell ref="E3:E10"/>
     <mergeCell ref="E12:E13"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="C12:C13"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="D3:D16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B6:B7"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="77" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/AdmitCard/MidDateSheet.xlsx
+++ b/AdmitCard/MidDateSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1545" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="1905" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -107,7 +107,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,13 +115,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -136,12 +149,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -451,10 +467,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A3:G16"/>
+  <dimension ref="A3:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -468,7 +484,7 @@
     <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
@@ -490,8 +506,9 @@
       <c r="G3" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -501,12 +518,13 @@
       <c r="G4" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>22</v>
       </c>
@@ -524,8 +542,9 @@
       <c r="G6" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -535,12 +554,13 @@
       <c r="G7" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>21</v>
       </c>
@@ -558,8 +578,9 @@
       <c r="G9" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -569,11 +590,12 @@
       <c r="G10" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>23</v>
       </c>
@@ -593,8 +615,9 @@
       <c r="G12" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -604,11 +627,12 @@
       <c r="G13" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>20</v>
       </c>
@@ -628,8 +652,9 @@
       <c r="G15" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -639,9 +664,23 @@
       <c r="G16" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="H16" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="29">
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A15:A16"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="B15:B16"/>
@@ -652,20 +691,12 @@
     <mergeCell ref="F15:F16"/>
     <mergeCell ref="E15:E16"/>
     <mergeCell ref="D3:D16"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A15:A16"/>
     <mergeCell ref="E3:E10"/>
     <mergeCell ref="E12:E13"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B6:B7"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="77" fitToHeight="0" orientation="portrait" r:id="rId1"/>
